--- a/opset_20/Intel - OpenVINO™/report_OpenVINOExecutionProvider.xlsx
+++ b/opset_20/Intel - OpenVINO™/report_OpenVINOExecutionProvider.xlsx
@@ -6354,7 +6354,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-08-29 10:44:17</t>
+          <t>2025-11-18 14:36:39</t>
         </is>
       </c>
     </row>

--- a/opset_20/Intel - OpenVINO™/report_OpenVINOExecutionProvider.xlsx
+++ b/opset_20/Intel - OpenVINO™/report_OpenVINOExecutionProvider.xlsx
@@ -6354,7 +6354,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-11-18 14:36:39</t>
+          <t>2025-11-18 14:49:43</t>
         </is>
       </c>
     </row>
